--- a/public/AddInfos/en/3.5.1.xlsx
+++ b/public/AddInfos/en/3.5.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A69450-8B80-452D-8D2F-C1F46D7B593D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="10800" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="10800" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerundet" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">Copyright: </t>
   </si>
@@ -89,11 +95,14 @@
   <si>
     <t>Estimate of high risk use (based on treatment entrants) of the substances opioids, cocaine and other stimulants in the age group 15 to under 65 years</t>
   </si>
+  <si>
+    <t>©       Federal Statistical Office (Destatis) 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,12 +230,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -258,7 +270,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -339,6 +350,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40FE-4C2C-B02A-0A1C8074149F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -414,6 +430,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40FE-4C2C-B02A-0A1C8074149F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -434,25 +455,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -488,7 +490,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -513,7 +514,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -545,7 +546,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -626,6 +626,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-992F-4926-B442-287233EC33D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -701,6 +706,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-992F-4926-B442-287233EC33D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -737,7 +747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -823,7 +832,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -853,7 +868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -897,7 +918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6"/>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -946,7 +973,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -978,7 +1011,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1022,7 +1061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1055,9 +1100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1095,9 +1140,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1130,9 +1175,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,9 +1227,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,22 +1419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1364,7 +1443,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1373,7 +1452,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1465,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1478,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -1412,7 +1491,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -1425,7 +1504,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -1438,7 +1517,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -1451,7 +1530,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1464,7 +1543,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1477,7 +1556,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1490,7 +1569,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1503,7 +1582,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1512,7 +1591,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1521,7 +1600,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1530,7 +1609,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1539,7 +1618,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1548,7 +1627,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1557,7 +1636,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1566,7 +1645,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1575,7 +1654,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1584,7 +1663,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1593,7 +1672,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1602,7 +1681,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1611,7 +1690,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1620,7 +1699,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1629,7 +1708,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1638,7 +1717,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1647,7 +1726,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1656,7 +1735,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1665,7 +1744,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1674,7 +1753,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1683,7 +1762,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1692,7 +1771,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1784,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1718,12 +1797,12 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1731,7 +1810,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="10" t="s">
         <v>7</v>
@@ -1742,7 +1821,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1751,7 +1830,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1760,7 +1839,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1769,7 +1848,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1790,23 +1869,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1815,7 +1894,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1824,7 +1903,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1916,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1929,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -1863,7 +1942,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -1876,7 +1955,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -1889,7 +1968,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -1902,7 +1981,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1915,7 +1994,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1928,7 +2007,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1941,7 +2020,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1954,7 +2033,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1963,7 +2042,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1972,7 +2051,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1981,7 +2060,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1990,7 +2069,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1999,7 +2078,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2008,7 +2087,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2017,7 +2096,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2026,7 +2105,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2035,7 +2114,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2044,7 +2123,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2053,7 +2132,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2062,7 +2141,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2071,7 +2150,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2080,7 +2159,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2089,7 +2168,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2098,7 +2177,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2107,7 +2186,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2116,7 +2195,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2125,7 +2204,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2134,7 +2213,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2143,7 +2222,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2235,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2248,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2261,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="10" t="s">
         <v>7</v>
@@ -2193,7 +2272,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2202,7 +2281,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2211,7 +2290,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2220,7 +2299,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2241,16 +2320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>2010</v>
       </c>
@@ -2273,7 +2352,7 @@
         <v>255405</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -2296,7 +2375,7 @@
         <v>274374</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2012</v>
       </c>
@@ -2319,7 +2398,7 @@
         <v>259303</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
@@ -2342,7 +2421,7 @@
         <v>255830</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -2365,7 +2444,7 @@
         <v>273923</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -2388,7 +2467,7 @@
         <v>267747</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2016</v>
       </c>
@@ -2411,7 +2490,7 @@
         <v>267572</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2017</v>
       </c>

--- a/public/AddInfos/en/3.5.1.xlsx
+++ b/public/AddInfos/en/3.5.1.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A69450-8B80-452D-8D2F-C1F46D7B593D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3969C-4E7F-471A-97C7-D06DF90A9CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="10800" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="10800" windowHeight="14532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerundet" sheetId="1" r:id="rId1"/>
     <sheet name="Exakt" sheetId="4" r:id="rId2"/>
     <sheet name="Daten" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t xml:space="preserve">Copyright: </t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>German Monitoring Center for Drugs and Drug Addiction (DBDD)</t>
-  </si>
-  <si>
-    <t>©       Federal Statistical Office (Destatis) 2020</t>
   </si>
   <si>
     <t>Reproduction and distribution, also of parts, are permitted provided that the source is mentioned.</t>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>©       Federal Statistical Office (Destatis) 2021</t>
+  </si>
+  <si>
+    <t>204 906 - 243 326</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Daten!$A$1:$A$8</c:f>
+              <c:f>Daten!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -589,16 +592,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Daten!$H$1:$H$8</c:f>
+              <c:f>Daten!$H$1:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>215078</c:v>
                 </c:pt>
@@ -622,6 +628,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>217220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,10 +651,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Daten!$A$1:$A$8</c:f>
+              <c:f>Daten!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -669,16 +678,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Daten!$I$1:$I$8</c:f>
+              <c:f>Daten!$I$1:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>40327</c:v>
                 </c:pt>
@@ -702,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,13 +977,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1050,14 +1065,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>140805</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>283662</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>184269</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1422,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1483,7 +1498,7 @@
         <v>2010</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1496,7 +1511,7 @@
         <v>2011</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1509,7 +1524,7 @@
         <v>2012</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1522,7 +1537,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1535,7 +1550,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1548,7 +1563,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1561,7 +1576,7 @@
         <v>2016</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1773,10 +1788,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1786,7 +1801,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>5</v>
@@ -1802,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1813,7 +1828,7 @@
     <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1870,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1921,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1934,7 +1949,7 @@
         <v>2010</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1947,7 +1962,7 @@
         <v>2011</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1960,7 +1975,7 @@
         <v>2012</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1973,7 +1988,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1986,7 +2001,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1999,7 +2014,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2012,7 +2027,7 @@
         <v>2016</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2025,7 +2040,7 @@
         <v>2017</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2034,8 +2049,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2223,12 +2242,8 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2237,12 +2252,12 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2250,10 +2265,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -2261,25 +2276,29 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -2308,23 +2327,32 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2337,6 +2365,7 @@
         <v>215</v>
       </c>
       <c r="C1">
+        <f>D1-B1</f>
         <v>40</v>
       </c>
       <c r="D1">
@@ -2346,6 +2375,7 @@
         <v>215078</v>
       </c>
       <c r="I1">
+        <f>J1-H1</f>
         <v>40327</v>
       </c>
       <c r="J1">
@@ -2360,6 +2390,7 @@
         <v>231</v>
       </c>
       <c r="C2">
+        <f t="shared" ref="C2:C9" si="0">D2-B2</f>
         <v>43</v>
       </c>
       <c r="D2">
@@ -2369,6 +2400,7 @@
         <v>231052</v>
       </c>
       <c r="I2">
+        <f t="shared" ref="I2:I9" si="1">J2-H2</f>
         <v>43322</v>
       </c>
       <c r="J2">
@@ -2383,6 +2415,7 @@
         <v>218</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D3">
@@ -2392,6 +2425,7 @@
         <v>218360</v>
       </c>
       <c r="I3">
+        <f t="shared" si="1"/>
         <v>40943</v>
       </c>
       <c r="J3">
@@ -2406,6 +2440,7 @@
         <v>215</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D4">
@@ -2415,6 +2450,7 @@
         <v>215436</v>
       </c>
       <c r="I4">
+        <f t="shared" si="1"/>
         <v>40394</v>
       </c>
       <c r="J4">
@@ -2429,6 +2465,7 @@
         <v>231</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D5">
@@ -2438,6 +2475,7 @@
         <v>230672</v>
       </c>
       <c r="I5">
+        <f t="shared" si="1"/>
         <v>43251</v>
       </c>
       <c r="J5">
@@ -2452,6 +2490,7 @@
         <v>225</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D6">
@@ -2461,6 +2500,7 @@
         <v>225471</v>
       </c>
       <c r="I6">
+        <f t="shared" si="1"/>
         <v>42276</v>
       </c>
       <c r="J6">
@@ -2475,6 +2515,7 @@
         <v>225</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D7">
@@ -2484,6 +2525,7 @@
         <v>225324</v>
       </c>
       <c r="I7">
+        <f t="shared" si="1"/>
         <v>42248</v>
       </c>
       <c r="J7">
@@ -2498,6 +2540,7 @@
         <v>217</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D8">
@@ -2507,10 +2550,36 @@
         <v>217220</v>
       </c>
       <c r="I8">
+        <f t="shared" si="1"/>
         <v>40729</v>
       </c>
       <c r="J8">
         <v>257949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>205</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>243</v>
+      </c>
+      <c r="H9">
+        <v>204906</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>38420</v>
+      </c>
+      <c r="J9">
+        <v>243326</v>
       </c>
     </row>
   </sheetData>

--- a/public/AddInfos/en/3.5.1.xlsx
+++ b/public/AddInfos/en/3.5.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\SDG\SdgTestEnvironment\sdg-indicators\public\AddInfos\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3969C-4E7F-471A-97C7-D06DF90A9CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC57968-C7D7-4DDA-AF19-36ACF39B98F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="10800" windowHeight="14532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="10800" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerundet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">Copyright: </t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>German Monitoring Center for Drugs and Drug Addiction</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Geographical Area:</t>
+  </si>
+  <si>
+    <t>Unit of measurement:</t>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t>Estimated data.</t>
+  </si>
+  <si>
+    <t>© Federal Statistical Office (Destatis) 2021</t>
   </si>
 </sst>
 </file>
@@ -746,24 +767,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1020,7 +1023,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1201588</xdr:colOff>
+      <xdr:colOff>803194</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1053,56 +1056,6 @@
         <a:xfrm>
           <a:off x="0" y="1245"/>
           <a:ext cx="1971871" cy="713130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>140805</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>283662</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>147</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="912330" y="7623312"/>
-          <a:ext cx="142857" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,15 +1394,15 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1458,7 +1411,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1467,7 +1420,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1433,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1446,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -1506,7 +1459,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -1519,7 +1472,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -1532,7 +1485,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -1545,7 +1498,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -1558,7 +1511,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -1571,7 +1524,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -1584,7 +1537,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -1597,7 +1550,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1606,7 +1559,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1615,7 +1568,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1624,7 +1577,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1633,7 +1586,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1642,7 +1595,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1651,7 +1604,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1660,7 +1613,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1669,7 +1622,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1678,7 +1631,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1687,7 +1640,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1696,7 +1649,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1705,7 +1658,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1714,7 +1667,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1723,7 +1676,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1732,7 +1685,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1741,7 +1694,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1750,7 +1703,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1759,7 +1712,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1768,7 +1721,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1777,7 +1730,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1786,7 +1739,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1752,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1765,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1778,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="10" t="s">
         <v>6</v>
@@ -1836,7 +1789,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1845,7 +1798,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1854,7 +1807,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1863,7 +1816,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1885,22 +1838,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1909,7 +1862,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1918,7 +1871,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +1884,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1944,7 +1897,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -1957,7 +1910,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -1970,7 +1923,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -1983,7 +1936,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -1996,7 +1949,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -2009,7 +1962,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -2022,7 +1975,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -2035,7 +1988,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -2048,7 +2001,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2018</v>
       </c>
@@ -2061,7 +2014,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2070,7 +2023,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2079,7 +2032,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2088,7 +2041,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2097,7 +2050,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2106,7 +2059,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2115,7 +2068,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2124,7 +2077,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2133,7 +2086,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2142,7 +2095,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2151,7 +2104,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2160,7 +2113,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2169,7 +2122,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2178,7 +2131,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2187,7 +2140,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2196,7 +2149,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2205,7 +2158,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2214,7 +2167,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2223,7 +2176,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2232,7 +2185,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2241,7 +2194,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2250,12 +2203,12 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2263,62 +2216,70 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2327,7 +2288,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2336,10 +2297,28 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2355,9 +2334,9 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>2010</v>
       </c>
@@ -2382,7 +2361,7 @@
         <v>255405</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
@@ -2407,7 +2386,7 @@
         <v>274374</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2012</v>
       </c>
@@ -2432,7 +2411,7 @@
         <v>259303</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
@@ -2457,7 +2436,7 @@
         <v>255830</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -2482,7 +2461,7 @@
         <v>273923</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -2507,7 +2486,7 @@
         <v>267747</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2016</v>
       </c>
@@ -2532,7 +2511,7 @@
         <v>267572</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2017</v>
       </c>
@@ -2557,7 +2536,7 @@
         <v>257949</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2018</v>
       </c>
